--- a/Aluguel/df_recall.xlsx
+++ b/Aluguel/df_recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="118">
   <si>
     <t>data</t>
   </si>
@@ -64,15 +64,6 @@
     <t>202006010025423912-1</t>
   </si>
   <si>
-    <t>2022012700327364850001-1</t>
-  </si>
-  <si>
-    <t>2022012700327364860001-1</t>
-  </si>
-  <si>
-    <t>2022012700327364880001-1</t>
-  </si>
-  <si>
     <t>2022020200328093030001-2</t>
   </si>
   <si>
@@ -85,15 +76,6 @@
     <t>2022020200328093060001-2</t>
   </si>
   <si>
-    <t>2022020300322378550001-2</t>
-  </si>
-  <si>
-    <t>2022020300322378590001-2</t>
-  </si>
-  <si>
-    <t>2022020300322378610001-2</t>
-  </si>
-  <si>
     <t>2022020700322681830001-2</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t>2022021700331471870001-1</t>
   </si>
   <si>
-    <t>2022021800324965020001-2</t>
-  </si>
-  <si>
     <t>2022022100332084390001-1</t>
   </si>
   <si>
@@ -133,12 +112,6 @@
     <t>2022022200325303550001-2</t>
   </si>
   <si>
-    <t>2022022200325303570001-2</t>
-  </si>
-  <si>
-    <t>2022022200325303580001-2</t>
-  </si>
-  <si>
     <t>2022022200325303600001-2</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
     <t>2022022300332812340001-1</t>
   </si>
   <si>
-    <t>2022022300332812350001-1</t>
-  </si>
-  <si>
     <t>2022022300332868550001-1</t>
   </si>
   <si>
@@ -199,9 +169,6 @@
     <t>2022022500333427010001-1</t>
   </si>
   <si>
-    <t>2022022500333427030001-1</t>
-  </si>
-  <si>
     <t>2022030200333775530001-1</t>
   </si>
   <si>
@@ -298,15 +265,9 @@
     <t>2022030800327622290001-2</t>
   </si>
   <si>
-    <t>2022030800334934210001-1</t>
-  </si>
-  <si>
     <t>2022030800334999230001-1</t>
   </si>
   <si>
-    <t>2022030800334999240001-1</t>
-  </si>
-  <si>
     <t>2022030900327759310001-2</t>
   </si>
   <si>
@@ -316,15 +277,45 @@
     <t>2022030900335278000001-1</t>
   </si>
   <si>
+    <t>2022031000335660220001-1</t>
+  </si>
+  <si>
+    <t>2022031000335695360001-1</t>
+  </si>
+  <si>
+    <t>2022031400322378550001-2</t>
+  </si>
+  <si>
+    <t>2022031400322378590001-2</t>
+  </si>
+  <si>
+    <t>2022031400322378610001-2</t>
+  </si>
+  <si>
+    <t>2022031500336417020001-1</t>
+  </si>
+  <si>
+    <t>2022031500336417030001-1</t>
+  </si>
+  <si>
+    <t>2022031500336417040001-1</t>
+  </si>
+  <si>
+    <t>2022031500336490200001-1</t>
+  </si>
+  <si>
+    <t>2022031500336553600001-1</t>
+  </si>
+  <si>
     <t>BRADESCO S/A CTVM</t>
   </si>
   <si>
+    <t>CM CAPITAL MARKETS CCTVM LTDA</t>
+  </si>
+  <si>
     <t>MIRAE ASSET WEALTH MANAGEMENT (BRASIL) CCTVM LTDA.</t>
   </si>
   <si>
-    <t>CM CAPITAL MARKETS CCTVM LTDA</t>
-  </si>
-  <si>
     <t>MODAL DTVM LTDA</t>
   </si>
   <si>
@@ -358,22 +349,25 @@
     <t>BOVA11</t>
   </si>
   <si>
+    <t>AMER9</t>
+  </si>
+  <si>
     <t>BPAN4</t>
   </si>
   <si>
-    <t>AMER9</t>
+    <t>VIIA3</t>
   </si>
   <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>VIIA3</t>
+    <t>ARZZ3</t>
   </si>
   <si>
     <t>AZUL4</t>
   </si>
   <si>
-    <t>ARZZ3</t>
+    <t>CVCB3</t>
   </si>
 </sst>
 </file>
@@ -735,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,16 +784,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>44692</v>
@@ -808,10 +802,10 @@
         <v>4.97</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2">
         <v>-300</v>
@@ -840,31 +834,31 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
-        <v>44630</v>
+        <v>44809</v>
       </c>
       <c r="F3">
-        <v>25.16</v>
+        <v>18.38</v>
       </c>
       <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
         <v>111</v>
       </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
       <c r="I3">
-        <v>-4792</v>
+        <v>-91</v>
       </c>
       <c r="J3">
         <v>-0</v>
@@ -890,31 +884,31 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
-        <v>44630</v>
+        <v>44809</v>
       </c>
       <c r="F4">
-        <v>25.16</v>
+        <v>18.38</v>
       </c>
       <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
       <c r="I4">
-        <v>-40</v>
+        <v>-47</v>
       </c>
       <c r="J4">
         <v>-0</v>
@@ -940,31 +934,31 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
-        <v>44630</v>
+        <v>44809</v>
       </c>
       <c r="F5">
-        <v>25.16</v>
+        <v>18.38</v>
       </c>
       <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" t="s">
-        <v>114</v>
-      </c>
       <c r="I5">
-        <v>-68</v>
+        <v>-169</v>
       </c>
       <c r="J5">
         <v>-0</v>
@@ -990,16 +984,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>44809</v>
@@ -1008,13 +1002,13 @@
         <v>18.38</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I6">
-        <v>-91</v>
+        <v>-23</v>
       </c>
       <c r="J6">
         <v>-0</v>
@@ -1040,31 +1034,31 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B7" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
-        <v>44809</v>
+        <v>44641</v>
       </c>
       <c r="F7">
-        <v>18.38</v>
+        <v>27.11</v>
       </c>
       <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" t="s">
-        <v>115</v>
-      </c>
       <c r="I7">
-        <v>-47</v>
+        <v>-8000</v>
       </c>
       <c r="J7">
         <v>-0</v>
@@ -1090,31 +1084,31 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>44809</v>
+        <v>44644</v>
       </c>
       <c r="F8">
-        <v>18.38</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I8">
-        <v>-169</v>
+        <v>-2830</v>
       </c>
       <c r="J8">
         <v>-0</v>
@@ -1140,31 +1134,31 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B9" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
-        <v>44809</v>
+        <v>44644</v>
       </c>
       <c r="F9">
-        <v>18.38</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I9">
-        <v>-23</v>
+        <v>-50</v>
       </c>
       <c r="J9">
         <v>-0</v>
@@ -1190,31 +1184,31 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B10" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2">
-        <v>44637</v>
+        <v>44650</v>
       </c>
       <c r="F10">
-        <v>5.02</v>
+        <v>24.48</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I10">
-        <v>-9550</v>
+        <v>-6200</v>
       </c>
       <c r="J10">
         <v>-0</v>
@@ -1240,31 +1234,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B11" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2">
-        <v>44637</v>
+        <v>44651</v>
       </c>
       <c r="F11">
-        <v>5.02</v>
+        <v>5.41</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I11">
-        <v>-9000</v>
+        <v>-24859</v>
       </c>
       <c r="J11">
         <v>-0</v>
@@ -1290,31 +1284,31 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B12" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2">
-        <v>44637</v>
+        <v>44651</v>
       </c>
       <c r="F12">
-        <v>5.02</v>
+        <v>5.41</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I12">
-        <v>-14500</v>
+        <v>-17781</v>
       </c>
       <c r="J12">
         <v>-0</v>
@@ -1340,31 +1334,31 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B13" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2">
-        <v>44641</v>
+        <v>44651</v>
       </c>
       <c r="F13">
-        <v>27.11</v>
+        <v>5.41</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13">
-        <v>-8000</v>
+        <v>-2233</v>
       </c>
       <c r="J13">
         <v>-0</v>
@@ -1390,31 +1384,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B14" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2">
-        <v>44644</v>
+        <v>44655</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>5.34</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
         <v>113</v>
       </c>
       <c r="I14">
-        <v>-2830</v>
+        <v>-9500</v>
       </c>
       <c r="J14">
         <v>-0</v>
@@ -1440,31 +1434,31 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B15" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15">
-        <v>-50</v>
+        <v>-45566</v>
       </c>
       <c r="J15">
         <v>-0</v>
@@ -1490,31 +1484,31 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="B16" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2">
-        <v>44650</v>
+        <v>44656</v>
       </c>
       <c r="F16">
-        <v>24.48</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I16">
-        <v>-6200</v>
+        <v>-22084</v>
       </c>
       <c r="J16">
         <v>-0</v>
@@ -1540,31 +1534,31 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="B17" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
-        <v>44651</v>
+        <v>44656</v>
       </c>
       <c r="F17">
-        <v>5.41</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I17">
-        <v>-24859</v>
+        <v>-2832</v>
       </c>
       <c r="J17">
         <v>-0</v>
@@ -1590,31 +1584,31 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
-        <v>44651</v>
+        <v>44656</v>
       </c>
       <c r="F18">
-        <v>5.41</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I18">
-        <v>-17781</v>
+        <v>-1299</v>
       </c>
       <c r="J18">
         <v>-0</v>
@@ -1640,31 +1634,31 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B19" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2">
-        <v>44651</v>
+        <v>44656</v>
       </c>
       <c r="F19">
-        <v>5.41</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I19">
-        <v>-2233</v>
+        <v>-3915</v>
       </c>
       <c r="J19">
         <v>-0</v>
@@ -1690,31 +1684,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="B20" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2">
-        <v>44652</v>
+        <v>44656</v>
       </c>
       <c r="F20">
-        <v>9.24</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I20">
-        <v>-9600</v>
+        <v>-1404</v>
       </c>
       <c r="J20">
         <v>-0</v>
@@ -1740,31 +1734,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="B21" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="F21">
-        <v>5.34</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I21">
-        <v>-9500</v>
+        <v>-1800</v>
       </c>
       <c r="J21">
         <v>-0</v>
@@ -1790,16 +1784,16 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B22" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2">
         <v>44656</v>
@@ -1808,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22">
-        <v>-45566</v>
+        <v>-12800</v>
       </c>
       <c r="J22">
         <v>-0</v>
@@ -1840,16 +1834,16 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B23" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2">
         <v>44656</v>
@@ -1858,13 +1852,13 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I23">
-        <v>-22084</v>
+        <v>-22688</v>
       </c>
       <c r="J23">
         <v>-0</v>
@@ -1890,16 +1884,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B24" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2">
         <v>44656</v>
@@ -1908,13 +1902,13 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I24">
-        <v>-2832</v>
+        <v>-10000</v>
       </c>
       <c r="J24">
         <v>-0</v>
@@ -1940,31 +1934,31 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="B25" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2">
-        <v>44656</v>
+        <v>44648</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I25">
-        <v>-1299</v>
+        <v>-168193</v>
       </c>
       <c r="J25">
         <v>-0</v>
@@ -1990,16 +1984,16 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2">
         <v>44656</v>
@@ -2008,13 +2002,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I26">
-        <v>-933</v>
+        <v>-1000</v>
       </c>
       <c r="J26">
         <v>-0</v>
@@ -2040,16 +2034,16 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2">
         <v>44656</v>
@@ -2058,13 +2052,13 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I27">
-        <v>-1412</v>
+        <v>-9000</v>
       </c>
       <c r="J27">
         <v>-0</v>
@@ -2090,16 +2084,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>44656</v>
@@ -2108,13 +2102,13 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I28">
-        <v>-3915</v>
+        <v>-3200</v>
       </c>
       <c r="J28">
         <v>-0</v>
@@ -2140,16 +2134,16 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2">
         <v>44656</v>
@@ -2158,13 +2152,13 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I29">
-        <v>-1404</v>
+        <v>-4100</v>
       </c>
       <c r="J29">
         <v>-0</v>
@@ -2190,16 +2184,16 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2">
         <v>44656</v>
@@ -2208,13 +2202,13 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I30">
-        <v>-1800</v>
+        <v>-11000</v>
       </c>
       <c r="J30">
         <v>-0</v>
@@ -2240,31 +2234,31 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>8.51</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I31">
-        <v>-12800</v>
+        <v>-40393</v>
       </c>
       <c r="J31">
         <v>-0</v>
@@ -2290,10 +2284,10 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2302,19 +2296,19 @@
         <v>105</v>
       </c>
       <c r="E32" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I32">
-        <v>-22688</v>
+        <v>-4650</v>
       </c>
       <c r="J32">
         <v>-0</v>
@@ -2340,31 +2334,31 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I33">
-        <v>-10000</v>
+        <v>-920</v>
       </c>
       <c r="J33">
         <v>-0</v>
@@ -2390,10 +2384,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B34" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -2402,19 +2396,19 @@
         <v>106</v>
       </c>
       <c r="E34" s="2">
-        <v>44648</v>
+        <v>44659</v>
       </c>
       <c r="F34">
-        <v>8.5</v>
+        <v>7.91</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I34">
-        <v>-168193</v>
+        <v>-3000</v>
       </c>
       <c r="J34">
         <v>-0</v>
@@ -2440,31 +2434,31 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I35">
-        <v>-1000</v>
+        <v>-17478</v>
       </c>
       <c r="J35">
         <v>-0</v>
@@ -2490,10 +2484,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2502,19 +2496,19 @@
         <v>105</v>
       </c>
       <c r="E36" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I36">
-        <v>-9000</v>
+        <v>-13604</v>
       </c>
       <c r="J36">
         <v>-0</v>
@@ -2540,31 +2534,31 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37">
-        <v>-3200</v>
+        <v>-2466</v>
       </c>
       <c r="J37">
         <v>-0</v>
@@ -2590,31 +2584,31 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I38">
-        <v>-4100</v>
+        <v>-2300</v>
       </c>
       <c r="J38">
         <v>-0</v>
@@ -2640,10 +2634,10 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2652,19 +2646,19 @@
         <v>105</v>
       </c>
       <c r="E39" s="2">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39">
-        <v>-11000</v>
+        <v>-19628</v>
       </c>
       <c r="J39">
         <v>-0</v>
@@ -2690,31 +2684,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="B40" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="F40">
-        <v>8.51</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I40">
-        <v>-40393</v>
+        <v>-1800</v>
       </c>
       <c r="J40">
         <v>-0</v>
@@ -2740,37 +2734,37 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E41" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="F41">
-        <v>0.74</v>
+        <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I41">
-        <v>-144956</v>
+        <v>-900</v>
       </c>
       <c r="J41">
         <v>-0</v>
       </c>
       <c r="K41">
-        <v>144956</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2782,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>144956</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2790,31 +2784,31 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I42">
-        <v>-4650</v>
+        <v>-934</v>
       </c>
       <c r="J42">
         <v>-0</v>
@@ -2840,31 +2834,31 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I43">
-        <v>-920</v>
+        <v>-900</v>
       </c>
       <c r="J43">
         <v>-0</v>
@@ -2890,31 +2884,31 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="F44">
-        <v>7.91</v>
+        <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I44">
-        <v>-3000</v>
+        <v>-150</v>
       </c>
       <c r="J44">
         <v>-0</v>
@@ -2940,31 +2934,31 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I45">
-        <v>-17478</v>
+        <v>-650</v>
       </c>
       <c r="J45">
         <v>-0</v>
@@ -2990,31 +2984,31 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I46">
-        <v>-13604</v>
+        <v>-214</v>
       </c>
       <c r="J46">
         <v>-0</v>
@@ -3040,31 +3034,31 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B47" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I47">
-        <v>-2466</v>
+        <v>-260</v>
       </c>
       <c r="J47">
         <v>-0</v>
@@ -3090,31 +3084,31 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I48">
-        <v>-3800</v>
+        <v>-322</v>
       </c>
       <c r="J48">
         <v>-0</v>
@@ -3140,31 +3134,31 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2">
         <v>44662</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I49">
-        <v>-2300</v>
+        <v>-70</v>
       </c>
       <c r="J49">
         <v>-0</v>
@@ -3190,16 +3184,16 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B50" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2">
         <v>44662</v>
@@ -3208,13 +3202,13 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I50">
-        <v>-19628</v>
+        <v>-83</v>
       </c>
       <c r="J50">
         <v>-0</v>
@@ -3240,16 +3234,16 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B51" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2">
         <v>44662</v>
@@ -3258,13 +3252,13 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I51">
-        <v>-1800</v>
+        <v>-108</v>
       </c>
       <c r="J51">
         <v>-0</v>
@@ -3290,16 +3284,16 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B52" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2">
         <v>44662</v>
@@ -3308,13 +3302,13 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I52">
-        <v>-900</v>
+        <v>-94</v>
       </c>
       <c r="J52">
         <v>-0</v>
@@ -3340,16 +3334,16 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2">
         <v>44662</v>
@@ -3358,13 +3352,13 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I53">
-        <v>-934</v>
+        <v>-133</v>
       </c>
       <c r="J53">
         <v>-0</v>
@@ -3390,16 +3384,16 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2">
         <v>44662</v>
@@ -3408,13 +3402,13 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I54">
-        <v>-900</v>
+        <v>-83</v>
       </c>
       <c r="J54">
         <v>-0</v>
@@ -3440,16 +3434,16 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2">
         <v>44662</v>
@@ -3458,13 +3452,13 @@
         <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I55">
-        <v>-150</v>
+        <v>-220</v>
       </c>
       <c r="J55">
         <v>-0</v>
@@ -3490,16 +3484,16 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B56" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2">
         <v>44662</v>
@@ -3508,13 +3502,13 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I56">
-        <v>-650</v>
+        <v>-260</v>
       </c>
       <c r="J56">
         <v>-0</v>
@@ -3540,16 +3534,16 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B57" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2">
         <v>44662</v>
@@ -3558,13 +3552,13 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I57">
-        <v>-214</v>
+        <v>-167</v>
       </c>
       <c r="J57">
         <v>-0</v>
@@ -3590,16 +3584,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B58" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2">
         <v>44662</v>
@@ -3608,13 +3602,13 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I58">
-        <v>-260</v>
+        <v>-70</v>
       </c>
       <c r="J58">
         <v>-0</v>
@@ -3640,16 +3634,16 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B59" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2">
         <v>44662</v>
@@ -3658,13 +3652,13 @@
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59">
-        <v>-322</v>
+        <v>-90</v>
       </c>
       <c r="J59">
         <v>-0</v>
@@ -3690,31 +3684,31 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B60" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>7.71</v>
       </c>
       <c r="G60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I60">
-        <v>-70</v>
+        <v>-9271</v>
       </c>
       <c r="J60">
         <v>-0</v>
@@ -3740,31 +3734,31 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B61" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>7.71</v>
       </c>
       <c r="G61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I61">
-        <v>-83</v>
+        <v>-30000</v>
       </c>
       <c r="J61">
         <v>-0</v>
@@ -3790,16 +3784,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B62" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2">
         <v>44662</v>
@@ -3808,13 +3802,13 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I62">
-        <v>-108</v>
+        <v>-27151</v>
       </c>
       <c r="J62">
         <v>-0</v>
@@ -3840,16 +3834,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2">
         <v>44662</v>
@@ -3858,13 +3852,13 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I63">
-        <v>-94</v>
+        <v>-1621</v>
       </c>
       <c r="J63">
         <v>-0</v>
@@ -3893,28 +3887,28 @@
         <v>309</v>
       </c>
       <c r="B64" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>7.91</v>
       </c>
       <c r="G64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I64">
-        <v>-133</v>
+        <v>-9215</v>
       </c>
       <c r="J64">
         <v>-0</v>
@@ -3940,31 +3934,31 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B65" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>7.91</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I65">
-        <v>-83</v>
+        <v>-312372</v>
       </c>
       <c r="J65">
         <v>-0</v>
@@ -3990,31 +3984,31 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B66" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2">
-        <v>44662</v>
+        <v>44664</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I66">
-        <v>-220</v>
+        <v>-800</v>
       </c>
       <c r="J66">
         <v>-0</v>
@@ -4040,31 +4034,31 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B67" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I67">
-        <v>-260</v>
+        <v>-319702</v>
       </c>
       <c r="J67">
         <v>-0</v>
@@ -4090,31 +4084,31 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B68" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>18.66</v>
       </c>
       <c r="G68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I68">
-        <v>-167</v>
+        <v>-23800</v>
       </c>
       <c r="J68">
         <v>-0</v>
@@ -4140,31 +4134,31 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B69" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>7.89</v>
       </c>
       <c r="G69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I69">
-        <v>-70</v>
+        <v>-85000</v>
       </c>
       <c r="J69">
         <v>-0</v>
@@ -4190,31 +4184,31 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="B70" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2">
-        <v>44662</v>
+        <v>44669</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I70">
-        <v>-90</v>
+        <v>-246284</v>
       </c>
       <c r="J70">
         <v>-0</v>
@@ -4223,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>246284</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4235,36 +4229,36 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>246284</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="B71" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="F71">
-        <v>7.71</v>
+        <v>7.89</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I71">
-        <v>-9271</v>
+        <v>-57200</v>
       </c>
       <c r="J71">
         <v>-0</v>
@@ -4290,31 +4284,31 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2">
-        <v>44663</v>
+        <v>44670</v>
       </c>
       <c r="F72">
-        <v>7.71</v>
+        <v>7.89</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I72">
-        <v>-30000</v>
+        <v>-50000</v>
       </c>
       <c r="J72">
         <v>-0</v>
@@ -4340,31 +4334,31 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2">
-        <v>44662</v>
+        <v>44670</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I73">
-        <v>-27151</v>
+        <v>-25000</v>
       </c>
       <c r="J73">
         <v>-0</v>
@@ -4373,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4385,36 +4379,36 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2">
-        <v>44662</v>
+        <v>44671</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>4.22</v>
       </c>
       <c r="G74" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I74">
-        <v>-1621</v>
+        <v>-14000</v>
       </c>
       <c r="J74">
         <v>-0</v>
@@ -4440,31 +4434,31 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="B75" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="F75">
-        <v>7.91</v>
+        <v>7.83</v>
       </c>
       <c r="G75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I75">
-        <v>-9215</v>
+        <v>-2396</v>
       </c>
       <c r="J75">
         <v>-0</v>
@@ -4490,31 +4484,31 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="B76" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2">
-        <v>44664</v>
+        <v>44676</v>
       </c>
       <c r="F76">
-        <v>7.91</v>
+        <v>7.77</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I76">
-        <v>-312372</v>
+        <v>-9550</v>
       </c>
       <c r="J76">
         <v>-0</v>
@@ -4540,31 +4534,31 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B77" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2">
-        <v>44664</v>
+        <v>44676</v>
       </c>
       <c r="F77">
-        <v>5.5</v>
+        <v>7.77</v>
       </c>
       <c r="G77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I77">
-        <v>-800</v>
+        <v>-9000</v>
       </c>
       <c r="J77">
         <v>-0</v>
@@ -4590,31 +4584,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B78" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2">
-        <v>44665</v>
+        <v>44676</v>
       </c>
       <c r="F78">
-        <v>7.9</v>
+        <v>7.77</v>
       </c>
       <c r="G78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I78">
-        <v>-319702</v>
+        <v>-14500</v>
       </c>
       <c r="J78">
         <v>-0</v>
@@ -4640,31 +4634,31 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B79" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2">
-        <v>44665</v>
+        <v>44677</v>
       </c>
       <c r="F79">
-        <v>18.66</v>
+        <v>6.15</v>
       </c>
       <c r="G79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I79">
-        <v>-24100</v>
+        <v>-373</v>
       </c>
       <c r="J79">
         <v>-0</v>
@@ -4690,31 +4684,31 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B80" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="F80">
-        <v>7.89</v>
+        <v>6.15</v>
       </c>
       <c r="G80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I80">
-        <v>-85000</v>
+        <v>-1500</v>
       </c>
       <c r="J80">
         <v>-0</v>
@@ -4740,31 +4734,31 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="B81" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="F81">
-        <v>30</v>
+        <v>6.15</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H81" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I81">
-        <v>-200000</v>
+        <v>-1000</v>
       </c>
       <c r="J81">
         <v>-0</v>
@@ -4790,31 +4784,31 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="B82" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <v>7.59</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I82">
-        <v>-246284</v>
+        <v>-11800</v>
       </c>
       <c r="J82">
         <v>-0</v>
@@ -4840,31 +4834,31 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B83" s="2">
-        <v>44630</v>
+        <v>44636</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2">
-        <v>44669</v>
+        <v>44677</v>
       </c>
       <c r="F83">
-        <v>30</v>
+        <v>6.25</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I83">
-        <v>-3716</v>
+        <v>-15063</v>
       </c>
       <c r="J83">
         <v>-0</v>
@@ -4885,156 +4879,6 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1">
-        <v>335</v>
-      </c>
-      <c r="B84" s="2">
-        <v>44630</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="2">
-        <v>44670</v>
-      </c>
-      <c r="F84">
-        <v>7.89</v>
-      </c>
-      <c r="G84" t="s">
-        <v>111</v>
-      </c>
-      <c r="H84" t="s">
-        <v>116</v>
-      </c>
-      <c r="I84">
-        <v>-57200</v>
-      </c>
-      <c r="J84">
-        <v>-0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="1">
-        <v>338</v>
-      </c>
-      <c r="B85" s="2">
-        <v>44630</v>
-      </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="2">
-        <v>44670</v>
-      </c>
-      <c r="F85">
-        <v>7.89</v>
-      </c>
-      <c r="G85" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85" t="s">
-        <v>116</v>
-      </c>
-      <c r="I85">
-        <v>-50000</v>
-      </c>
-      <c r="J85">
-        <v>-0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="1">
-        <v>273</v>
-      </c>
-      <c r="B86" s="2">
-        <v>44630</v>
-      </c>
-      <c r="C86" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" t="s">
-        <v>110</v>
-      </c>
-      <c r="E86" s="2">
-        <v>44670</v>
-      </c>
-      <c r="F86">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" t="s">
-        <v>118</v>
-      </c>
-      <c r="I86">
-        <v>-25000</v>
-      </c>
-      <c r="J86">
-        <v>-0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
         <v>0</v>
       </c>
     </row>
